--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leenghanayem1/Desktop/MSC1187/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BCE12A-216A-F846-A5D1-7E2A4F6C0C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577372A-2653-CF49-8555-602BDE576D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="1000" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{03AAE657-5580-9941-9B11-0117419CA542}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
     <sheet name="T1&amp;T2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="38">
   <si>
     <t>SubID</t>
   </si>
@@ -134,6 +135,24 @@
   <si>
     <t>loneliness_mean_T2</t>
   </si>
+  <si>
+    <t>loneliness</t>
+  </si>
+  <si>
+    <t>connectedness</t>
+  </si>
+  <si>
+    <t>Loneliness_sumT2</t>
+  </si>
+  <si>
+    <t>Connectedness_sum_T2</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Male (1); Female (2)</t>
+  </si>
 </sst>
 </file>
 
@@ -168,12 +187,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,11 +213,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270F0B56-FA69-8340-A37B-D64070451571}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2985,80 +3013,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EB4B11-3920-0441-868E-3B56EC8C2C74}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3078,31 +3110,40 @@
         <v>9</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
         <v>80</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>47</v>
       </c>
+      <c r="M2" s="2">
+        <v>37</v>
+      </c>
       <c r="N2" s="2">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="O2" s="2">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2">
         <v>2.4</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>4.6500000000000004</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>1.9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3122,25 +3163,40 @@
         <v>9</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>90</v>
+      </c>
+      <c r="L3">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
       </c>
       <c r="N3" s="2">
+        <v>92</v>
+      </c>
+      <c r="O3" s="2">
         <v>4.5</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>2.35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3160,31 +3216,40 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
         <v>56</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>60</v>
       </c>
+      <c r="M4" s="2">
+        <v>52</v>
+      </c>
       <c r="N4" s="2">
+        <v>72</v>
+      </c>
+      <c r="O4" s="2">
         <v>2.8</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>2.95</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>3.6</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>2.65</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3204,31 +3269,40 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <v>104</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>30</v>
       </c>
+      <c r="M5" s="2">
+        <v>43</v>
+      </c>
       <c r="N5" s="2">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2">
         <v>5.2</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>1.65</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>4.95</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3248,31 +3322,40 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
         <v>99</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>28</v>
       </c>
+      <c r="M6" s="2">
+        <v>37</v>
+      </c>
       <c r="N6" s="2">
+        <v>109</v>
+      </c>
+      <c r="O6" s="2">
         <v>4.95</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>1.55</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>5.45</v>
       </c>
-      <c r="Q6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3292,31 +3375,40 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>90</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>38</v>
       </c>
+      <c r="M7" s="2">
+        <v>37</v>
+      </c>
       <c r="N7" s="2">
+        <v>89</v>
+      </c>
+      <c r="O7" s="2">
         <v>4.5</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>1.95</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>4.45</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3336,31 +3428,40 @@
         <v>11</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <v>101</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>29</v>
       </c>
+      <c r="M8" s="2">
+        <v>26</v>
+      </c>
       <c r="N8" s="2">
+        <v>109</v>
+      </c>
+      <c r="O8" s="2">
         <v>5.05</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>1.6</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>5.45</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>1.45</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3380,31 +3481,40 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <v>97</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>42</v>
       </c>
+      <c r="M9" s="2">
+        <v>44</v>
+      </c>
       <c r="N9" s="2">
+        <v>102</v>
+      </c>
+      <c r="O9" s="2">
         <v>4.8499999999999996</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>2.15</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -3424,34 +3534,46 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>82</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>59</v>
       </c>
+      <c r="M10" s="2">
+        <v>50</v>
+      </c>
       <c r="N10" s="2">
+        <v>92</v>
+      </c>
+      <c r="O10" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O10" s="2">
-        <v>2.4500000000000002</v>
-      </c>
       <c r="P10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>2.65</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>18</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="C11">
         <v>26</v>
       </c>
@@ -3465,31 +3587,40 @@
         <v>13</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <v>82</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>46</v>
       </c>
+      <c r="M11" s="2">
+        <v>39</v>
+      </c>
       <c r="N11" s="2">
-        <v>3.8</v>
+        <v>97</v>
       </c>
       <c r="O11" s="2">
-        <v>1.95</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P11" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q11" s="2">
         <v>4.8499999999999996</v>
       </c>
-      <c r="Q11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>31</v>
       </c>
@@ -3509,31 +3640,40 @@
         <v>12</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <v>76</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>38</v>
       </c>
+      <c r="M12" s="2">
+        <v>36</v>
+      </c>
       <c r="N12" s="2">
-        <v>5.3</v>
+        <v>85</v>
       </c>
       <c r="O12" s="2">
-        <v>2.0499999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="P12" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="Q12" s="2">
         <v>4.25</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>1.95</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>34</v>
       </c>
@@ -3553,34 +3693,46 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>106</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>38</v>
       </c>
+      <c r="M13" s="2">
+        <v>29</v>
+      </c>
       <c r="N13" s="2">
-        <v>4.8499999999999996</v>
+        <v>114</v>
       </c>
       <c r="O13" s="2">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="P13" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q13" s="2">
         <v>5.7</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>39</v>
       </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
       <c r="C14">
         <v>52</v>
       </c>
@@ -3594,34 +3746,46 @@
         <v>13</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
         <v>97</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>41</v>
       </c>
+      <c r="M14" s="2">
+        <v>27</v>
+      </c>
       <c r="N14" s="2">
-        <v>3.5</v>
+        <v>101</v>
       </c>
       <c r="O14" s="2">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="P14" s="2">
         <v>2.1</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>5.05</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
       <c r="C15">
         <v>49</v>
       </c>
@@ -3635,31 +3799,40 @@
         <v>9</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
         <v>70</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>41</v>
       </c>
+      <c r="M15" s="2">
+        <v>47</v>
+      </c>
       <c r="N15" s="2">
-        <v>3.4</v>
+        <v>71</v>
       </c>
       <c r="O15" s="2">
-        <v>2.4500000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="P15" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="Q15" s="2">
         <v>3.55</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>50</v>
       </c>
@@ -3679,31 +3852,40 @@
         <v>9</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
         <v>68</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>48</v>
       </c>
+      <c r="M16" s="2">
+        <v>54</v>
+      </c>
       <c r="N16" s="2">
-        <v>4.75</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="P16" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q16" s="2">
         <v>3.6</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>2.75</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>52</v>
       </c>
@@ -3723,31 +3905,40 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
         <v>95</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>38</v>
       </c>
+      <c r="M17" s="2">
+        <v>30</v>
+      </c>
       <c r="N17" s="2">
-        <v>5.45</v>
+        <v>95</v>
       </c>
       <c r="O17" s="2">
-        <v>2.0499999999999998</v>
+        <v>4.75</v>
       </c>
       <c r="P17" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="Q17" s="2">
         <v>4.75</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <v>1.65</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>53</v>
       </c>
@@ -3767,31 +3958,40 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
         <v>109</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>38</v>
       </c>
+      <c r="M18" s="2">
+        <v>38</v>
+      </c>
       <c r="N18" s="2">
-        <v>5.0999999999999996</v>
+        <v>104</v>
       </c>
       <c r="O18" s="2">
+        <v>5.45</v>
+      </c>
+      <c r="P18" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q18" s="2">
         <v>5.2</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
         <v>1.95</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>57</v>
       </c>
@@ -3811,34 +4011,46 @@
         <v>9</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
         <v>102</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>38</v>
       </c>
+      <c r="M19" s="2">
+        <v>33</v>
+      </c>
       <c r="N19" s="2">
-        <v>5.35</v>
+        <v>101</v>
       </c>
       <c r="O19" s="2">
-        <v>1.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P19" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q19" s="2">
         <v>5.05</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>58</v>
       </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
       <c r="C20">
         <v>66</v>
       </c>
@@ -3852,31 +4064,40 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
         <v>107</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>27</v>
       </c>
+      <c r="M20" s="2">
+        <v>30</v>
+      </c>
       <c r="N20" s="2">
-        <v>4.3499999999999996</v>
+        <v>107</v>
       </c>
       <c r="O20" s="2">
-        <v>1.85</v>
+        <v>5.35</v>
       </c>
       <c r="P20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" s="2">
         <v>5.35</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>1.55</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>63</v>
       </c>
@@ -3896,34 +4117,46 @@
         <v>9</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
         <v>87</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>34</v>
       </c>
+      <c r="M21" s="2">
+        <v>28</v>
+      </c>
       <c r="N21" s="2">
-        <v>5.25</v>
+        <v>88</v>
       </c>
       <c r="O21" s="2">
-        <v>1.7</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="P21" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="Q21" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
         <v>1.55</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>64</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
       <c r="C22">
         <v>32</v>
       </c>
@@ -3937,31 +4170,40 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <v>105</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>31</v>
       </c>
+      <c r="M22" s="2">
+        <v>31</v>
+      </c>
       <c r="N22" s="2">
-        <v>4.3</v>
+        <v>104</v>
       </c>
       <c r="O22" s="2">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="P22" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="Q22" s="2">
         <v>5.2</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>67</v>
       </c>
@@ -3981,31 +4223,40 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
         <v>86</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>45</v>
       </c>
+      <c r="M23" s="2">
+        <v>44</v>
+      </c>
       <c r="N23" s="2">
-        <v>4.4000000000000004</v>
+        <v>87</v>
       </c>
       <c r="O23" s="2">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="P23" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="Q23" s="2">
         <v>4.3499999999999996</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="2">
         <v>2.35</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>71</v>
       </c>
@@ -4025,31 +4276,40 @@
         <v>9</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
         <v>88</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>39</v>
       </c>
+      <c r="M24" s="2">
+        <v>43</v>
+      </c>
       <c r="N24" s="2">
-        <v>4.6500000000000004</v>
+        <v>101</v>
       </c>
       <c r="O24" s="2">
-        <v>2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="2">
         <v>5.05</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>74</v>
       </c>
@@ -4069,31 +4329,40 @@
         <v>9</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
         <v>93</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>39</v>
       </c>
+      <c r="M25" s="2">
+        <v>35</v>
+      </c>
       <c r="N25" s="2">
-        <v>5.55</v>
+        <v>98</v>
       </c>
       <c r="O25" s="2">
-        <v>1.45</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="P25" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="R25" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>75</v>
       </c>
@@ -4113,31 +4382,40 @@
         <v>9</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
         <v>111</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>26</v>
       </c>
+      <c r="M26" s="2">
+        <v>28</v>
+      </c>
       <c r="N26" s="2">
-        <v>2.65</v>
+        <v>107</v>
       </c>
       <c r="O26" s="2">
-        <v>3.3</v>
+        <v>5.55</v>
       </c>
       <c r="P26" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="Q26" s="2">
         <v>5.35</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="R26" s="2">
         <v>1.55</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>76</v>
       </c>
@@ -4157,31 +4435,40 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
         <v>53</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>67</v>
       </c>
+      <c r="M27" s="2">
+        <v>51</v>
+      </c>
       <c r="N27" s="2">
-        <v>2.9</v>
+        <v>84</v>
       </c>
       <c r="O27" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="P27" s="2">
         <v>3.3</v>
       </c>
-      <c r="P27" s="2">
+      <c r="Q27" s="2">
         <v>4.2</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="R27" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>81</v>
       </c>
@@ -4201,34 +4488,46 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
         <v>58</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <v>67</v>
       </c>
+      <c r="M28" s="2">
+        <v>59</v>
+      </c>
       <c r="N28" s="2">
-        <v>5.3</v>
+        <v>78</v>
       </c>
       <c r="O28" s="2">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="P28" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="Q28" s="2">
         <v>3.9</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="R28" s="2">
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>88</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29">
         <v>45</v>
       </c>
@@ -4242,34 +4541,46 @@
         <v>12</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
         <v>106</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>28</v>
       </c>
+      <c r="M29" s="2">
+        <v>40</v>
+      </c>
       <c r="N29" s="2">
-        <v>2.7</v>
+        <v>106</v>
       </c>
       <c r="O29" s="2">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="P29" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="Q29" s="2">
         <v>5.3</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="2">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>102</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
       <c r="C30">
         <v>32</v>
       </c>
@@ -4283,34 +4594,46 @@
         <v>13</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
         <v>54</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>63</v>
       </c>
+      <c r="M30" s="2">
+        <v>54</v>
+      </c>
       <c r="N30" s="2">
-        <v>3.8</v>
+        <v>53</v>
       </c>
       <c r="O30" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="P30" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="Q30" s="2">
         <v>2.65</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="R30" s="2">
         <v>2.75</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>106</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
       <c r="C31">
         <v>25</v>
       </c>
@@ -4324,31 +4647,40 @@
         <v>13</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
         <v>76</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <v>43</v>
       </c>
+      <c r="M31" s="2">
+        <v>51</v>
+      </c>
       <c r="N31" s="2">
-        <v>4.0999999999999996</v>
+        <v>71</v>
       </c>
       <c r="O31" s="2">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="P31" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q31" s="2">
         <v>3.55</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="R31" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>109</v>
       </c>
@@ -4368,34 +4700,46 @@
         <v>12</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
         <v>82</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>49</v>
       </c>
+      <c r="M32" s="2">
+        <v>46</v>
+      </c>
       <c r="N32" s="2">
-        <v>3.55</v>
+        <v>82</v>
       </c>
       <c r="O32" s="2">
-        <v>1.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P32" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="Q32" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="R32" s="2">
         <v>2.25</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>115</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
       <c r="C33">
         <v>28</v>
       </c>
@@ -4409,31 +4753,40 @@
         <v>13</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
         <v>71</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>37</v>
       </c>
+      <c r="M33" s="2">
+        <v>58</v>
+      </c>
       <c r="N33" s="2">
-        <v>3.7</v>
+        <v>70</v>
       </c>
       <c r="O33" s="2">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="P33" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="Q33" s="2">
         <v>3.5</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="R33" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>119</v>
       </c>
@@ -4453,949 +4806,2165 @@
         <v>12</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
         <v>74</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <v>53</v>
       </c>
+      <c r="M34" s="2">
+        <v>52</v>
+      </c>
       <c r="N34" s="2">
+        <v>72</v>
+      </c>
+      <c r="O34" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="P34" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="R34" s="2">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>122</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
+        <v>64</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>99</v>
+      </c>
+      <c r="L35" s="6">
+        <v>37</v>
+      </c>
+      <c r="M35" s="6">
+        <v>39</v>
+      </c>
+      <c r="N35" s="2">
+        <v>95</v>
+      </c>
+      <c r="O35" s="6">
         <v>4.95</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P35" s="6">
         <v>1.9</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q35" s="6">
+        <v>4.75</v>
+      </c>
+      <c r="R35" s="6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>130</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>69</v>
+      </c>
+      <c r="L36" s="2">
+        <v>46</v>
+      </c>
+      <c r="M36" s="2">
+        <v>44</v>
+      </c>
+      <c r="N36" s="2">
+        <v>61</v>
+      </c>
+      <c r="O36" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="P36" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="R36" s="2">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>100</v>
+      </c>
+      <c r="L37" s="2">
+        <v>44</v>
+      </c>
+      <c r="M37" s="2">
+        <v>39</v>
+      </c>
+      <c r="N37" s="2">
+        <v>105</v>
+      </c>
+      <c r="O37" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="P37" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="R37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>139</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>93</v>
+      </c>
+      <c r="L38" s="2">
+        <v>44</v>
+      </c>
+      <c r="M38" s="2">
+        <v>46</v>
+      </c>
+      <c r="N38" s="2">
+        <v>94</v>
+      </c>
+      <c r="O38" s="2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="P38" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="R38" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>149</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>103</v>
+      </c>
+      <c r="L39" s="2">
+        <v>31</v>
+      </c>
+      <c r="M39" s="2">
+        <v>23</v>
+      </c>
+      <c r="N39" s="2">
+        <v>117</v>
+      </c>
+      <c r="O39" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>154</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>70</v>
+      </c>
+      <c r="L40" s="2">
+        <v>52</v>
+      </c>
+      <c r="M40" s="2">
+        <v>52</v>
+      </c>
+      <c r="N40" s="2">
+        <v>74</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="P40" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="R40" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>156</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>80</v>
+      </c>
+      <c r="L41" s="2">
+        <v>46</v>
+      </c>
+      <c r="M41" s="2">
+        <v>33</v>
+      </c>
+      <c r="N41" s="2">
+        <v>86</v>
+      </c>
+      <c r="O41" s="2">
+        <v>4</v>
+      </c>
+      <c r="P41" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>158</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>113</v>
+      </c>
+      <c r="L42" s="2">
+        <v>27</v>
+      </c>
+      <c r="M42" s="2">
+        <v>37</v>
+      </c>
+      <c r="N42" s="2">
+        <v>97</v>
+      </c>
+      <c r="O42" s="2">
+        <v>5.65</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>159</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>75</v>
+      </c>
+      <c r="L43" s="2">
+        <v>39</v>
+      </c>
+      <c r="M43" s="2">
+        <v>39</v>
+      </c>
+      <c r="N43" s="2">
+        <v>92</v>
+      </c>
+      <c r="O43" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="P43" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>167</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>110</v>
+      </c>
+      <c r="L44" s="2">
+        <v>46</v>
+      </c>
+      <c r="M44" s="2">
+        <v>41</v>
+      </c>
+      <c r="N44" s="2">
+        <v>96</v>
+      </c>
+      <c r="O44" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="R44" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>169</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>105</v>
+      </c>
+      <c r="L45" s="2">
+        <v>33</v>
+      </c>
+      <c r="M45" s="2">
+        <v>34</v>
+      </c>
+      <c r="N45" s="2">
+        <v>95</v>
+      </c>
+      <c r="O45" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="R45" s="2">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>179</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>70</v>
+      </c>
+      <c r="L46" s="2">
+        <v>59</v>
+      </c>
+      <c r="M46" s="2">
+        <v>54</v>
+      </c>
+      <c r="N46" s="2">
+        <v>72</v>
+      </c>
+      <c r="O46" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="P46" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="Q46" s="2">
         <v>3.6</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="R46" s="2">
         <v>2.65</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>180</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>58</v>
+      </c>
+      <c r="L47" s="2">
+        <v>54</v>
+      </c>
+      <c r="M47" s="2">
+        <v>47</v>
+      </c>
+      <c r="N47" s="2">
+        <v>69</v>
+      </c>
+      <c r="O47" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="P47" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="R47" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>187</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>79</v>
+      </c>
+      <c r="L48" s="2">
+        <v>45</v>
+      </c>
+      <c r="M48" s="2">
+        <v>43</v>
+      </c>
+      <c r="N48" s="2">
+        <v>77</v>
+      </c>
+      <c r="O48" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="P48" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="R48" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>191</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>79</v>
+      </c>
+      <c r="L49" s="2">
+        <v>54</v>
+      </c>
+      <c r="M49" s="2">
+        <v>51</v>
+      </c>
+      <c r="N49" s="2">
+        <v>79</v>
+      </c>
+      <c r="O49" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="P49" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="R49" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>192</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>69</v>
+      </c>
+      <c r="L50" s="2">
+        <v>57</v>
+      </c>
+      <c r="M50" s="2">
+        <v>45</v>
+      </c>
+      <c r="N50" s="2">
+        <v>80</v>
+      </c>
+      <c r="O50" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="P50" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>4</v>
+      </c>
+      <c r="R50" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>193</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>92</v>
+      </c>
+      <c r="L51" s="2">
+        <v>39</v>
+      </c>
+      <c r="M51" s="2">
+        <v>55</v>
+      </c>
+      <c r="N51" s="2">
+        <v>69</v>
+      </c>
+      <c r="O51" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P51" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="R51" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>194</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>107</v>
+      </c>
+      <c r="L52" s="2">
+        <v>41</v>
+      </c>
+      <c r="M52" s="2">
+        <v>38</v>
+      </c>
+      <c r="N52" s="2">
+        <v>92</v>
+      </c>
+      <c r="O52" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="P52" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>195</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>78</v>
+      </c>
+      <c r="L53" s="2">
+        <v>46</v>
+      </c>
+      <c r="M53" s="2">
+        <v>38</v>
+      </c>
+      <c r="N53" s="2">
+        <v>95</v>
+      </c>
+      <c r="O53" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="P53" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="R53" s="2">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>63</v>
+      </c>
+      <c r="L54" s="2">
+        <v>50</v>
+      </c>
+      <c r="M54" s="2">
+        <v>62</v>
+      </c>
+      <c r="N54" s="2">
+        <v>64</v>
+      </c>
+      <c r="O54" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="P54" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="R54" s="2">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>197</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>78</v>
+      </c>
+      <c r="L55" s="2">
+        <v>54</v>
+      </c>
+      <c r="M55" s="2">
+        <v>42</v>
+      </c>
+      <c r="N55" s="2">
+        <v>78</v>
+      </c>
+      <c r="O55" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="P55" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="R55" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <f>COUNTIF(B2:B55,"1")</f>
+        <v>25</v>
+      </c>
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <f>COUNTIF(B2:B55,"2")</f>
+        <v>29</v>
+      </c>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f>SUM(B56:B58)</f>
+        <v>54</v>
+      </c>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N106" s="2"/>
+    </row>
+    <row r="107" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N112" s="2"/>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N114" s="2"/>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N116" s="2"/>
+    </row>
+    <row r="117" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N117" s="2"/>
+    </row>
+    <row r="118" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N118" s="2"/>
+    </row>
+    <row r="119" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N119" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB19E2E-2042-494E-9687-D48E5CA4487D}">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>88</v>
+      </c>
+      <c r="B29" s="2">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>102</v>
+      </c>
+      <c r="B30" s="2">
+        <v>102</v>
+      </c>
+      <c r="C30" s="2">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>106</v>
+      </c>
+      <c r="B31" s="2">
+        <v>106</v>
+      </c>
+      <c r="C31" s="2">
+        <v>51</v>
+      </c>
+      <c r="D31" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>109</v>
+      </c>
+      <c r="B32" s="2">
+        <v>109</v>
+      </c>
+      <c r="C32" s="2">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>115</v>
+      </c>
+      <c r="B33" s="2">
+        <v>115</v>
+      </c>
+      <c r="C33" s="2">
+        <v>58</v>
+      </c>
+      <c r="D33" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>119</v>
+      </c>
+      <c r="B34" s="2">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>122</v>
       </c>
-      <c r="C35">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>99</v>
-      </c>
-      <c r="K35" s="2">
-        <v>37</v>
-      </c>
-      <c r="N35" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="O35" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="P35" s="2">
-        <v>4.75</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>122</v>
+      </c>
+      <c r="C35" s="2">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>130</v>
       </c>
-      <c r="C36">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2">
-        <v>69</v>
-      </c>
-      <c r="K36" s="2">
-        <v>46</v>
-      </c>
-      <c r="N36" s="2">
-        <v>4.05</v>
-      </c>
-      <c r="O36" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="P36" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>130</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>136</v>
       </c>
-      <c r="C37">
-        <v>24</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" s="2">
-        <v>100</v>
-      </c>
-      <c r="K37" s="2">
-        <v>44</v>
-      </c>
-      <c r="N37" s="2">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="O37" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="P37" s="2">
-        <v>5.25</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>136</v>
+      </c>
+      <c r="C37" s="2">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>139</v>
       </c>
-      <c r="C38">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2">
-        <v>93</v>
-      </c>
-      <c r="K38" s="2">
-        <v>44</v>
-      </c>
-      <c r="N38" s="2">
-        <v>5.15</v>
-      </c>
-      <c r="O38" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="P38" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>139</v>
+      </c>
+      <c r="C38" s="2">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>149</v>
       </c>
-      <c r="C39">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>103</v>
-      </c>
-      <c r="K39" s="2">
-        <v>31</v>
-      </c>
-      <c r="N39" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="O39" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="P39" s="2">
-        <v>5.85</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>149</v>
+      </c>
+      <c r="C39" s="2">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>154</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>35</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>70</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="B40" s="2">
+        <v>154</v>
+      </c>
+      <c r="C40" s="2">
         <v>52</v>
       </c>
-      <c r="N40" s="2">
-        <v>4</v>
-      </c>
-      <c r="O40" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="P40" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D40" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>156</v>
       </c>
-      <c r="C41">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>80</v>
-      </c>
-      <c r="K41" s="2">
-        <v>46</v>
-      </c>
-      <c r="N41" s="2">
-        <v>5.65</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P41" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>156</v>
+      </c>
+      <c r="C41" s="2">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>158</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="2">
+        <v>158</v>
+      </c>
+      <c r="C42" s="2">
         <v>37</v>
       </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>113</v>
-      </c>
-      <c r="K42" s="2">
-        <v>27</v>
-      </c>
-      <c r="N42" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="O42" s="2">
-        <v>2</v>
-      </c>
-      <c r="P42" s="2">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D42" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>159</v>
       </c>
-      <c r="C43">
+      <c r="B43" s="2">
+        <v>159</v>
+      </c>
+      <c r="C43" s="2">
         <v>39</v>
       </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2">
-        <v>75</v>
-      </c>
-      <c r="K43" s="2">
-        <v>39</v>
-      </c>
-      <c r="N43" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="O43" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="P43" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D43" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>167</v>
       </c>
-      <c r="C44">
-        <v>32</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
-        <v>110</v>
-      </c>
-      <c r="K44" s="2">
-        <v>46</v>
-      </c>
-      <c r="N44" s="2">
-        <v>5.25</v>
-      </c>
-      <c r="O44" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="P44" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>167</v>
+      </c>
+      <c r="C44" s="2">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>169</v>
       </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" s="2">
-        <v>105</v>
-      </c>
-      <c r="K45" s="2">
-        <v>33</v>
-      </c>
-      <c r="N45" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="O45" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="P45" s="2">
-        <v>4.75</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>169</v>
+      </c>
+      <c r="C45" s="2">
+        <v>34</v>
+      </c>
+      <c r="D45" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>179</v>
       </c>
-      <c r="C46">
-        <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2">
-        <v>70</v>
-      </c>
-      <c r="K46" s="2">
-        <v>59</v>
-      </c>
-      <c r="N46" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="O46" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="P46" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>179</v>
+      </c>
+      <c r="C46" s="2">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>180</v>
       </c>
-      <c r="C47">
-        <v>53</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2">
-        <v>58</v>
-      </c>
-      <c r="K47" s="2">
-        <v>54</v>
-      </c>
-      <c r="N47" s="2">
-        <v>3.95</v>
-      </c>
-      <c r="O47" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P47" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>180</v>
+      </c>
+      <c r="C47" s="2">
+        <v>47</v>
+      </c>
+      <c r="D47" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>187</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2">
-        <v>79</v>
-      </c>
-      <c r="K48" s="2">
-        <v>45</v>
-      </c>
-      <c r="N48" s="2">
-        <v>3.95</v>
-      </c>
-      <c r="O48" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="P48" s="2">
-        <v>3.85</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>187</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43</v>
+      </c>
+      <c r="D48" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>191</v>
       </c>
-      <c r="C49">
-        <v>41</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
+      <c r="B49" s="2">
+        <v>191</v>
+      </c>
+      <c r="C49" s="2">
+        <v>51</v>
+      </c>
+      <c r="D49" s="2">
         <v>79</v>
       </c>
-      <c r="K49" s="2">
-        <v>54</v>
-      </c>
-      <c r="N49" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="O49" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="P49" s="2">
-        <v>3.95</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>192</v>
       </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>24</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2">
-        <v>69</v>
-      </c>
-      <c r="K50" s="2">
-        <v>57</v>
-      </c>
-      <c r="N50" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O50" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="P50" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>192</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45</v>
+      </c>
+      <c r="D50" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>193</v>
       </c>
-      <c r="C51">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2">
-        <v>92</v>
-      </c>
-      <c r="K51" s="2">
-        <v>39</v>
-      </c>
-      <c r="N51" s="2">
-        <v>5.35</v>
-      </c>
-      <c r="O51" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="P51" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>193</v>
+      </c>
+      <c r="C51" s="2">
+        <v>55</v>
+      </c>
+      <c r="D51" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>194</v>
       </c>
-      <c r="C52">
-        <v>40</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2">
-        <v>107</v>
-      </c>
-      <c r="K52" s="2">
-        <v>41</v>
-      </c>
-      <c r="N52" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="O52" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="P52" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>194</v>
+      </c>
+      <c r="C52" s="2">
+        <v>38</v>
+      </c>
+      <c r="D52" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>195</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>37</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" s="2">
-        <v>78</v>
-      </c>
-      <c r="K53" s="2">
-        <v>46</v>
-      </c>
-      <c r="N53" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="O53" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="P53" s="2">
-        <v>4.75</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>195</v>
+      </c>
+      <c r="C53" s="2">
+        <v>38</v>
+      </c>
+      <c r="D53" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>196</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>63</v>
-      </c>
-      <c r="K54" s="2">
-        <v>50</v>
-      </c>
-      <c r="N54" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="O54" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="P54" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>196</v>
+      </c>
+      <c r="C54" s="2">
+        <v>62</v>
+      </c>
+      <c r="D54" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>197</v>
       </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>36</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2">
+      <c r="B55" s="2">
+        <v>197</v>
+      </c>
+      <c r="C55" s="2">
+        <v>42</v>
+      </c>
+      <c r="D55" s="2">
         <v>78</v>
       </c>
-      <c r="K55" s="2">
-        <v>54</v>
-      </c>
-      <c r="P55" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57">
-        <f xml:space="preserve"> COUNTBLANK(B2:B55)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58">
-        <f>COUNTIF(B2:B55,"1")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
         <v>25</v>
-      </c>
-      <c r="B59">
-        <f>COUNTIF(B2:B55,"2")</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <f>SUM(B57:B59)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <f>B57/B61</f>
-        <v>0.40740740740740738</v>
       </c>
     </row>
   </sheetData>
